--- a/Formation_Adrar/8_Parcours_Entreprise/Fichier_Entreprise_modele (2).xlsx
+++ b/Formation_Adrar/8_Parcours_Entreprise/Fichier_Entreprise_modele (2).xlsx
@@ -27,8 +27,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>cyberdev</author>
+  </authors>
+  <commentList>
+    <comment ref="K6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cyberdev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de besoin de stagiaire</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cyberdev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Responsable développement consulting chez Digit-Air
+gilles.place@digit-air.com</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t xml:space="preserve">Nom entreprise </t>
   </si>
@@ -187,12 +246,15 @@
       <t>Nicolas CAVALIÉ</t>
     </r>
   </si>
+  <si>
+    <t>Gilles PLACE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +383,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -405,7 +480,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -451,6 +526,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
@@ -733,11 +809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +1009,9 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="2"/>
@@ -986,9 +1064,13 @@
         <v>34</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="25">
+        <v>45273</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="5"/>
@@ -1965,6 +2047,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Formation_Adrar/8_Parcours_Entreprise/Fichier_Entreprise_modele (2).xlsx
+++ b/Formation_Adrar/8_Parcours_Entreprise/Fichier_Entreprise_modele (2).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyberdev\Desktop\Audrey\Git_Exo\Formation_Adrar\8_Parcours_Entreprise\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="8090"/>
   </bookViews>
   <sheets>
     <sheet name="Fichier entreprises" sheetId="1" r:id="rId1"/>
@@ -18,17 +13,51 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Fichier entreprises'!$A$1:$M$61</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Audrey Simon</author>
+  </authors>
+  <commentList>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Audrey Simon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+mail automatique: si pas de réponse sous 1 mois considérer négatif</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t xml:space="preserve">Nom entreprise </t>
   </si>
@@ -187,12 +216,18 @@
       <t>Nicolas CAVALIÉ</t>
     </r>
   </si>
+  <si>
+    <t>Mail 06/12</t>
+  </si>
+  <si>
+    <t>mail 06/12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +355,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -514,7 +562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -549,7 +597,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -726,36 +774,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="42" zoomScaleSheetLayoutView="42" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="25.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="11" max="12" width="19.1796875" customWidth="1"/>
+    <col min="13" max="13" width="32.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="26.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -796,7 +844,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="15.5">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -826,7 +874,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="11" customFormat="1" ht="15.5">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -854,7 +902,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="15.5">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -882,7 +930,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="17">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -903,14 +951,16 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="17">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -931,14 +981,16 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="17">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -959,14 +1011,16 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="17">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -987,14 +1041,16 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="5"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="17">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1017,14 +1073,16 @@
       <c r="H9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="5"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="17">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1045,14 +1103,16 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="5"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="17">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1075,14 +1135,16 @@
       <c r="H11" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="5"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="17">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1100,7 +1162,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="17">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1118,7 +1180,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="17">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1136,7 +1198,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="17">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1154,7 +1216,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="17">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1172,7 +1234,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="17">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1190,7 +1252,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="17">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1208,7 +1270,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="17">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1226,7 +1288,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="17">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1244,7 +1306,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="17">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1262,7 +1324,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="17">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -1280,7 +1342,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="17">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1298,7 +1360,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="17">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1316,7 +1378,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="17">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1334,7 +1396,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="17">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1352,7 +1414,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="17">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1370,7 +1432,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="17">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1388,7 +1450,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="17">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1406,7 +1468,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="17">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -1424,7 +1486,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="17">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1442,7 +1504,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="17">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -1459,7 +1521,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="17">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -1476,7 +1538,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="17">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -1493,7 +1555,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="17">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -1510,7 +1572,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="17">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -1527,7 +1589,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="17">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -1544,7 +1606,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="17">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -1561,7 +1623,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="17">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1578,7 +1640,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="17">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -1595,7 +1657,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="17">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -1612,7 +1674,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="17">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -1629,7 +1691,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="17">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -1646,7 +1708,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="17">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -1663,7 +1725,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="17">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -1680,7 +1742,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="17">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -1697,7 +1759,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="17">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -1714,7 +1776,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="17">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -1731,7 +1793,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="17">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -1748,7 +1810,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="17">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -1765,7 +1827,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="17">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -1782,7 +1844,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="17">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -1799,7 +1861,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="17">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -1816,7 +1878,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="17">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -1833,7 +1895,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="17">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -1850,7 +1912,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="17">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -1867,7 +1929,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="17">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -1887,7 +1949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="17">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -1904,7 +1966,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="17">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -1921,7 +1983,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="17">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -1938,7 +2000,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="17">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -1965,16 +2027,17 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
